--- a/static/centre_sante.xlsx
+++ b/static/centre_sante.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/dashboard_mshp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC4EA30-576A-6445-ADC2-3C9007116C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8DBF0-3F58-604E-BB1D-04CB69801D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{4B410188-5AD2-E24A-8BFB-AA06C4B9D644}"/>
+    <workbookView xWindow="5140" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{4B410188-5AD2-E24A-8BFB-AA06C4B9D644}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$219</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="370">
   <si>
     <t>CENTRES DE SANTÉ</t>
   </si>
@@ -1133,13 +1133,28 @@
   </si>
   <si>
     <t>PRES YAMOUSSOUKRO</t>
+  </si>
+  <si>
+    <t>CHR SAN PEDRO</t>
+  </si>
+  <si>
+    <t>FSU DJEZOUKOUAMEKRO</t>
+  </si>
+  <si>
+    <t>HG AGNIBILIEKRO</t>
+  </si>
+  <si>
+    <t>HG M’BATTO</t>
+  </si>
+  <si>
+    <t>HG PORT BOUET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1169,6 +1184,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1184,7 +1206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1351,11 +1373,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1372,6 +1405,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1686,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD607E0-653D-AF49-8D33-229EE0EE7209}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1697,7 +1736,7 @@
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
@@ -1719,84 +1758,84 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>355</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>228</v>
@@ -1804,33 +1843,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>221</v>
@@ -1838,16 +1877,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>221</v>
@@ -1855,98 +1894,98 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>356</v>
@@ -1957,50 +1996,50 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>228</v>
@@ -2008,33 +2047,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>238</v>
+      <c r="A20" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>221</v>
@@ -2042,67 +2081,67 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>221</v>
@@ -2110,10 +2149,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>240</v>
@@ -2122,15 +2161,15 @@
         <v>356</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>240</v>
@@ -2139,15 +2178,15 @@
         <v>356</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>240</v>
@@ -2161,10 +2200,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>240</v>
@@ -2173,106 +2212,106 @@
         <v>356</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>221</v>
@@ -2280,33 +2319,33 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>221</v>
@@ -2314,50 +2353,50 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>221</v>
@@ -2365,33 +2404,33 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>228</v>
@@ -2399,50 +2438,50 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>228</v>
@@ -2450,16 +2489,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>228</v>
@@ -2467,16 +2506,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>228</v>
@@ -2484,67 +2523,67 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>228</v>
@@ -2552,101 +2591,101 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>89</v>
+      <c r="A55" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>228</v>
@@ -2654,16 +2693,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>221</v>
@@ -2671,132 +2710,132 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>356</v>
@@ -2807,13 +2846,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>356</v>
@@ -2824,64 +2863,64 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>356</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>356</v>
@@ -2892,50 +2931,50 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>221</v>
@@ -2943,33 +2982,33 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>221</v>
@@ -2977,67 +3016,67 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>221</v>
@@ -3045,16 +3084,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>221</v>
@@ -3062,16 +3101,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>221</v>
@@ -3079,47 +3118,47 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>357</v>
@@ -3130,16 +3169,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>221</v>
@@ -3147,16 +3186,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>221</v>
@@ -3164,67 +3203,67 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>221</v>
@@ -3232,16 +3271,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>228</v>
@@ -3249,135 +3288,135 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>228</v>
@@ -3385,16 +3424,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>221</v>
@@ -3402,16 +3441,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>228</v>
@@ -3419,16 +3458,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>228</v>
@@ -3436,61 +3475,61 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>287</v>
@@ -3499,21 +3538,21 @@
         <v>359</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>228</v>
@@ -3521,169 +3560,169 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>359</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>221</v>
@@ -3691,16 +3730,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>221</v>
@@ -3708,33 +3747,33 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>221</v>
@@ -3742,50 +3781,50 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>221</v>
@@ -3793,16 +3832,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>221</v>
@@ -3810,16 +3849,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>221</v>
@@ -3827,33 +3866,33 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>360</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>221</v>
@@ -3861,67 +3900,67 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>221</v>
@@ -3929,33 +3968,33 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>228</v>
@@ -3963,16 +4002,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>221</v>
@@ -3980,50 +4019,50 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="2" t="s">
-        <v>57</v>
+      <c r="A136" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>221</v>
@@ -4031,33 +4070,33 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>221</v>
@@ -4065,16 +4104,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>221</v>
@@ -4082,16 +4121,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>221</v>
@@ -4099,33 +4138,33 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>221</v>
@@ -4133,13 +4172,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>361</v>
@@ -4150,33 +4189,33 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>221</v>
@@ -4184,50 +4223,50 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="2" t="s">
-        <v>55</v>
+      <c r="A148" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>221</v>
@@ -4235,16 +4274,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>221</v>
@@ -4252,33 +4291,33 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>228</v>
@@ -4286,84 +4325,84 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E155" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E156" s="9" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>221</v>
@@ -4371,16 +4410,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>221</v>
@@ -4388,50 +4427,50 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>326</v>
+        <v>172</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>221</v>
@@ -4439,16 +4478,16 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>221</v>
@@ -4456,67 +4495,67 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>228</v>
@@ -4524,16 +4563,16 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>228</v>
@@ -4541,16 +4580,16 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>228</v>
@@ -4558,16 +4597,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>221</v>
@@ -4575,13 +4614,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>363</v>
@@ -4592,16 +4631,16 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>221</v>
@@ -4609,16 +4648,16 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>221</v>
@@ -4626,33 +4665,33 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>221</v>
@@ -4660,67 +4699,67 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>228</v>
@@ -4728,33 +4767,33 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>228</v>
@@ -4762,16 +4801,16 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>228</v>
@@ -4779,33 +4818,33 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>221</v>
@@ -4813,152 +4852,152 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>167</v>
+        <v>337</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>364</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>364</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>364</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>221</v>
@@ -4966,33 +5005,33 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>228</v>
@@ -5000,16 +5039,16 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>228</v>
@@ -5017,159 +5056,248 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>347</v>
+        <v>174</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>364</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>347</v>
+        <v>174</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>364</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>348</v>
+        <v>237</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="17" thickBot="1">
       <c r="A204" s="5" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>351</v>
+        <v>238</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="D204" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D209" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="E204" s="10" t="s">
+      <c r="E209" s="15" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E204" xr:uid="{EDD607E0-653D-AF49-8D33-229EE0EE7209}"/>
+  <autoFilter ref="A1:E219" xr:uid="{EDD607E0-653D-AF49-8D33-229EE0EE7209}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E219">
+      <sortCondition ref="B1:B219"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/centre_sante.xlsx
+++ b/static/centre_sante.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/dashboard_mshp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8DBF0-3F58-604E-BB1D-04CB69801D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C51C18-9C7E-4140-8F30-76970B781322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{4B410188-5AD2-E24A-8BFB-AA06C4B9D644}"/>
+    <workbookView xWindow="2600" yWindow="2780" windowWidth="27640" windowHeight="16940" xr2:uid="{4B410188-5AD2-E24A-8BFB-AA06C4B9D644}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="373">
   <si>
     <t>CENTRES DE SANTÉ</t>
   </si>
@@ -1148,6 +1148,15 @@
   </si>
   <si>
     <t>HG PORT BOUET</t>
+  </si>
+  <si>
+    <t>CCTOS</t>
+  </si>
+  <si>
+    <t>SAMU</t>
+  </si>
+  <si>
+    <t>CSU COCODY M'BADON</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,6 +1211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1408,9 +1423,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1725,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD607E0-653D-AF49-8D33-229EE0EE7209}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2066,7 +2084,7 @@
       <c r="A20" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -4378,7 +4396,7 @@
       <c r="A156" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -5211,16 +5229,16 @@
       <c r="A205" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="C205" t="s">
         <v>234</v>
       </c>
-      <c r="D205" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="E205" s="15" t="s">
+      <c r="D205" t="s">
+        <v>356</v>
+      </c>
+      <c r="E205" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5228,16 +5246,16 @@
       <c r="A206" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" t="s">
         <v>316</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" t="s">
         <v>313</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" t="s">
         <v>361</v>
       </c>
-      <c r="E206" s="15" t="s">
+      <c r="E206" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5245,16 +5263,16 @@
       <c r="A207" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" t="s">
         <v>290</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" t="s">
         <v>287</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" t="s">
         <v>359</v>
       </c>
-      <c r="E207" s="15" t="s">
+      <c r="E207" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5262,16 +5280,16 @@
       <c r="A208" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" t="s">
         <v>290</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" t="s">
         <v>287</v>
       </c>
-      <c r="D208" s="15" t="s">
+      <c r="D208" t="s">
         <v>359</v>
       </c>
-      <c r="E208" s="15" t="s">
+      <c r="E208" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5279,17 +5297,68 @@
       <c r="A209" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" t="s">
         <v>348</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C209" t="s">
         <v>346</v>
       </c>
-      <c r="D209" s="15" t="s">
+      <c r="D209" t="s">
         <v>364</v>
       </c>
-      <c r="E209" s="15" t="s">
-        <v>221</v>
+      <c r="E209" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" t="s">
+        <v>242</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D210" t="s">
+        <v>356</v>
+      </c>
+      <c r="E210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B211" t="s">
+        <v>242</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D211" t="s">
+        <v>356</v>
+      </c>
+      <c r="E211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B212" t="s">
+        <v>242</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D212" t="s">
+        <v>356</v>
+      </c>
+      <c r="E212" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
